--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Duriana/Documents/Ketchups/FYP/grpc/grpc-auto-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC589C9-302C-8D4F-ADC6-4006510B80E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035FE0B-9828-CA4C-87D7-0008EA506364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="14900" xr2:uid="{21C299CA-AAA5-994F-A29D-AE16A83D7C73}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tests performed" sheetId="1" r:id="rId1"/>
-    <sheet name="Active issues" sheetId="4" r:id="rId2"/>
-    <sheet name="Ignored or resolved issues" sheetId="2" r:id="rId3"/>
-    <sheet name="gat bugs" sheetId="3" r:id="rId4"/>
+    <sheet name="Intro" sheetId="5" r:id="rId1"/>
+    <sheet name="Tests performed" sheetId="1" r:id="rId2"/>
+    <sheet name="Active issues" sheetId="4" r:id="rId3"/>
+    <sheet name="Ignored or resolved issues" sheetId="2" r:id="rId4"/>
+    <sheet name="gat bugs" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="303">
   <si>
     <t>gRPC testing checklist</t>
   </si>
@@ -903,12 +904,122 @@
 - DO NOT try to determine if the field is unset or is explicitly set with default value
 - Be careful if you're working with protobuf.js library</t>
   </si>
+  <si>
+    <t>Compression support</t>
+  </si>
+  <si>
+    <t>Senders</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>gzip</t>
+  </si>
+  <si>
+    <t>deflate</t>
+  </si>
+  <si>
+    <t>Test configs</t>
+  </si>
+  <si>
+    <t>Test requests/responses with compression. Note that for gRPC, request and response compressions are handled independently, and receivers should be able to decompress the message without any explicit settings from us, provided the compression algo used is supported. For this test, we only look at those that are officially supported (mentioned in their documentation).</t>
+  </si>
+  <si>
+    <t>Expected behaviour</t>
+  </si>
+  <si>
+    <t>If a client message is compressed by an algorithm that is not supported by a server, the message WILL result in an UNIMPLEMENTED error status on the server.
+If a server sent data which is compressed by an algorithm that is not supported by the client, an INTERNAL error status will occur on the client side.</t>
+  </si>
+  <si>
+    <t>Compression algo / Supported compression</t>
+  </si>
+  <si>
+    <t>TESTCASE --random
+INCLUDE_PROTO single_field_values.proto</t>
+  </si>
+  <si>
+    <t>deflate, gzip</t>
+  </si>
+  <si>
+    <t>OK, but there is no grpc-accept-encoding and grpc-encoding header from client?</t>
+  </si>
+  <si>
+    <t>Welcome to gRPC auto testing record!</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Introduction and summary of this file</t>
+  </si>
+  <si>
+    <t>Tests performed</t>
+  </si>
+  <si>
+    <t>Results of all tests performed thus far, plus some upcoming tests</t>
+  </si>
+  <si>
+    <t>Active issues</t>
+  </si>
+  <si>
+    <t>All inconsistencies and issues found with gRPC</t>
+  </si>
+  <si>
+    <t>Ignored or resolved issues</t>
+  </si>
+  <si>
+    <t>Issues found while running the tool but is ignored or resolved (resolved issues are issues due to other factors, not inherently due to gRPC)</t>
+  </si>
+  <si>
+    <t>gat bugs</t>
+  </si>
+  <si>
+    <t>Issues with the grpc-auto-test tool</t>
+  </si>
+  <si>
+    <t>Synbols</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>A test performed with Java test client and Python test server</t>
+  </si>
+  <si>
+    <t>* -&gt; Java</t>
+  </si>
+  <si>
+    <t>Any tests with Java as the server</t>
+  </si>
+  <si>
+    <t>Java -&gt; *</t>
+  </si>
+  <si>
+    <t>Any tests with Java as the client</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>* most literal values recorded, plus message types, are defined in the corresponding .proto files associated with the test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -965,6 +1076,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -974,7 +1099,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1000,13 +1125,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
@@ -1053,13 +1193,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1070,6 +1225,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{638548F1-BEC5-4E4C-AF2A-CA26EADDA3C5}" name="Table1" displayName="Table1" ref="A4:B9" totalsRowShown="0">
+  <autoFilter ref="A4:B9" xr:uid="{638548F1-BEC5-4E4C-AF2A-CA26EADDA3C5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9E77627F-5EDE-1548-9C3F-B48702C941FC}" name="Sheet" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B1A80149-6BCC-0D4F-9459-808782DE208C}" name="Content"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56B4AE88-0A1B-8A46-B2E7-DD8D782106B8}" name="Table2" displayName="Table2" ref="A13:B18" totalsRowShown="0">
+  <autoFilter ref="A13:B18" xr:uid="{56B4AE88-0A1B-8A46-B2E7-DD8D782106B8}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F4434CCA-BA5B-8E47-B10A-C8AD2E5E9E4C}" name="Synbols"/>
+    <tableColumn id="2" xr3:uid="{28FEF971-5DBA-C14D-91CD-B35DDFE29F55}" name="Meaning"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,11 +1565,146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A23E273-8971-684D-B228-C19739A81024}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="112" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:2" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21BFCB4-0742-3441-8DBF-D8558B20D680}">
-  <dimension ref="A1:BF153"/>
+  <dimension ref="A1:BF166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1679,6 +1991,9 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -1810,6 +2125,9 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
@@ -1923,6 +2241,9 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
@@ -2036,6 +2357,9 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
       <c r="E9" t="s">
         <v>30</v>
       </c>
@@ -2167,6 +2491,9 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
@@ -2298,6 +2625,9 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
@@ -2411,6 +2741,9 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" t="s">
         <v>30</v>
       </c>
@@ -2527,6 +2860,9 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
@@ -2643,6 +2979,9 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" t="s">
         <v>30</v>
       </c>
@@ -2758,6 +3097,9 @@
     <row r="15" spans="1:58" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
@@ -2884,6 +3226,9 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
@@ -3007,6 +3352,9 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
       <c r="E17" t="s">
         <v>30</v>
       </c>
@@ -3120,6 +3468,9 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
@@ -3197,6 +3548,9 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
@@ -3274,6 +3628,9 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
@@ -3351,6 +3708,9 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
@@ -3427,6 +3787,9 @@
     <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -6226,6 +6589,9 @@
       <c r="N117" t="s">
         <v>258</v>
       </c>
+      <c r="O117" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -6267,6 +6633,9 @@
       <c r="N118" t="s">
         <v>258</v>
       </c>
+      <c r="O118" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -6308,6 +6677,9 @@
       <c r="N119" t="s">
         <v>258</v>
       </c>
+      <c r="O119" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -6349,6 +6721,9 @@
       <c r="N120" t="s">
         <v>258</v>
       </c>
+      <c r="O120" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -6390,6 +6765,9 @@
       <c r="N121" t="s">
         <v>258</v>
       </c>
+      <c r="O121" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -6431,6 +6809,9 @@
       <c r="N122" t="s">
         <v>258</v>
       </c>
+      <c r="O122" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -6472,6 +6853,9 @@
       <c r="N123" t="s">
         <v>258</v>
       </c>
+      <c r="O123" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -6513,6 +6897,9 @@
       <c r="N124" t="s">
         <v>258</v>
       </c>
+      <c r="O124" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -6554,6 +6941,9 @@
       <c r="N125" t="s">
         <v>258</v>
       </c>
+      <c r="O125" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -6595,6 +6985,9 @@
       <c r="N126" t="s">
         <v>258</v>
       </c>
+      <c r="O126" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -6636,6 +7029,9 @@
       <c r="N127" t="s">
         <v>258</v>
       </c>
+      <c r="O127" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -6677,8 +7073,11 @@
       <c r="N128" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -6718,8 +7117,11 @@
       <c r="N129" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -6759,8 +7161,11 @@
       <c r="N130" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -6800,8 +7205,11 @@
       <c r="N131" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -6841,8 +7249,11 @@
       <c r="N132" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>27</v>
       </c>
@@ -6882,8 +7293,11 @@
       <c r="N133" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" ht="370" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O133" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="370" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -6906,7 +7320,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>259</v>
       </c>
@@ -6929,7 +7343,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>234</v>
       </c>
@@ -6952,7 +7366,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E138" t="s">
         <v>236</v>
       </c>
@@ -6960,7 +7374,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E139" t="s">
         <v>237</v>
       </c>
@@ -6968,7 +7382,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E140" t="s">
         <v>238</v>
       </c>
@@ -6976,7 +7390,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E141" t="s">
         <v>239</v>
       </c>
@@ -6984,7 +7398,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E142" t="s">
         <v>240</v>
       </c>
@@ -6992,7 +7406,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E143" t="s">
         <v>241</v>
       </c>
@@ -7000,7 +7414,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E144" t="s">
         <v>242</v>
       </c>
@@ -7008,7 +7422,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E145" t="s">
         <v>243</v>
       </c>
@@ -7016,7 +7430,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E146" t="s">
         <v>244</v>
       </c>
@@ -7024,7 +7438,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E147" t="s">
         <v>245</v>
       </c>
@@ -7032,7 +7446,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E148" t="s">
         <v>246</v>
       </c>
@@ -7040,7 +7454,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E149" t="s">
         <v>247</v>
       </c>
@@ -7048,7 +7462,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E150" t="s">
         <v>248</v>
       </c>
@@ -7056,7 +7470,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E151" t="s">
         <v>249</v>
       </c>
@@ -7064,7 +7478,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E152" t="s">
         <v>250</v>
       </c>
@@ -7072,7 +7486,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E153" t="s">
         <v>251</v>
       </c>
@@ -7080,8 +7494,244 @@
         <v>251</v>
       </c>
     </row>
+    <row r="156" spans="1:15" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+    </row>
+    <row r="157" spans="1:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>269</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>268</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C158" t="s">
+        <v>270</v>
+      </c>
+      <c r="D158" t="s">
+        <v>270</v>
+      </c>
+      <c r="F158" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B159" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H159" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B160" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B161" t="s">
+        <v>271</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H161" s="21"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="20"/>
+      <c r="B162" t="s">
+        <v>270</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H162" s="21"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" t="s">
+        <v>271</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H163" s="21"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="20"/>
+      <c r="B164" t="s">
+        <v>270</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H164" s="21"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B165" t="s">
+        <v>271</v>
+      </c>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="20"/>
+      <c r="B166" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="43">
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="E156:H156"/>
+    <mergeCell ref="J156:M156"/>
     <mergeCell ref="AO4:AT4"/>
     <mergeCell ref="AU4:AZ4"/>
     <mergeCell ref="BA4:BF4"/>
@@ -7127,11 +7777,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEA9785-6439-EE40-BF54-969898A6E922}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -7395,7 +8045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A22FEC-AF85-3C49-BE9D-9E119D4BD56C}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -7479,7 +8129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A8FF14-85B8-0140-B5F4-825D6903E7DE}">
   <dimension ref="A1:F3"/>
   <sheetViews>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Duriana/Documents/Ketchups/FYP/grpc/grpc-auto-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035FE0B-9828-CA4C-87D7-0008EA506364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FEEB56-EF82-524F-9226-3091BF8668AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="14900" xr2:uid="{21C299CA-AAA5-994F-A29D-AE16A83D7C73}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="14900" activeTab="2" xr2:uid="{21C299CA-AAA5-994F-A29D-AE16A83D7C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="304">
   <si>
     <t>gRPC testing checklist</t>
   </si>
@@ -1013,6 +1013,9 @@
   </si>
   <si>
     <t>* most literal values recorded, plus message types, are defined in the corresponding .proto files associated with the test</t>
+  </si>
+  <si>
+    <t>* all tests, unless mentioned otherwise, are performed with gRPC</t>
   </si>
 </sst>
 </file>
@@ -1166,26 +1169,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1193,15 +1187,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1566,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A23E273-8971-684D-B228-C19739A81024}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1606,18 +1609,18 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="13" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="13" t="s">
         <v>289</v>
       </c>
     </row>
@@ -1688,6 +1691,11 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1703,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21BFCB4-0742-3441-8DBF-D8558B20D680}">
   <dimension ref="A1:BF166"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="C84" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92:G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1741,90 +1749,90 @@
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:58" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="18" t="s">
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18" t="s">
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18" t="s">
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18" t="s">
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="19" t="s">
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3209,18 +3217,18 @@
       <c r="AT15" t="s">
         <v>30</v>
       </c>
-      <c r="AU15" s="11" t="s">
+      <c r="AU15" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="AV15" s="11"/>
-      <c r="AW15" s="11"/>
-      <c r="AX15" s="11"/>
-      <c r="AY15" s="11"/>
-      <c r="AZ15" s="11"/>
-      <c r="BA15" s="11"/>
-      <c r="BB15" s="11"/>
-      <c r="BC15" s="11"/>
-      <c r="BD15" s="11"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3340,13 +3348,13 @@
       <c r="AU16" t="s">
         <v>191</v>
       </c>
-      <c r="AV16" s="11" t="s">
+      <c r="AV16" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="AW16" s="11"/>
-      <c r="AX16" s="11"/>
-      <c r="AY16" s="11"/>
-      <c r="AZ16" s="11"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -3919,50 +3927,50 @@
       </c>
     </row>
     <row r="35" spans="1:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12" t="s">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12" t="s">
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12" t="s">
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="12"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="19"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="19"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -5818,19 +5826,19 @@
       <c r="G67" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="16" t="s">
+      <c r="H67" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
     </row>
     <row r="68" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
@@ -5908,14 +5916,14 @@
       <c r="K74" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L74" s="16" t="s">
+      <c r="L74" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -6122,30 +6130,30 @@
       <c r="B90" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13" t="s">
+      <c r="D90" s="24"/>
+      <c r="E90" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13" t="s">
+      <c r="F90" s="24"/>
+      <c r="G90" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13" t="s">
+      <c r="H90" s="24"/>
+      <c r="I90" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13" t="s">
+      <c r="J90" s="24"/>
+      <c r="K90" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13" t="s">
+      <c r="L90" s="24"/>
+      <c r="M90" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="N90" s="13"/>
+      <c r="N90" s="24"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
@@ -6189,103 +6197,103 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B92" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="14" t="s">
+      <c r="D92" s="16"/>
+      <c r="E92" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="G92" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="H92" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="I92" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="J92" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="K92" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="16" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
+      <c r="A93" s="21"/>
       <c r="B93" t="s">
         <v>167</v>
       </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="11"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="16"/>
     </row>
     <row r="94" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
+      <c r="A94" s="21"/>
       <c r="B94" t="s">
         <v>168</v>
       </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="11"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="16"/>
     </row>
     <row r="95" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
+      <c r="A95" s="21"/>
       <c r="B95" t="s">
         <v>169</v>
       </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="11"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="16"/>
     </row>
     <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="21" t="s">
         <v>172</v>
       </c>
       <c r="B96" t="s">
@@ -6329,7 +6337,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
+      <c r="A97" s="21"/>
       <c r="B97" t="s">
         <v>167</v>
       </c>
@@ -6371,7 +6379,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
+      <c r="A98" s="21"/>
       <c r="B98" t="s">
         <v>168</v>
       </c>
@@ -6413,7 +6421,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
+      <c r="A99" s="21"/>
       <c r="B99" t="s">
         <v>169</v>
       </c>
@@ -6497,13 +6505,13 @@
       <c r="I115" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J115" s="11" t="s">
+      <c r="J115" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="16"/>
     </row>
     <row r="116" spans="1:15" ht="52" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
@@ -7507,21 +7515,21 @@
       <c r="D156" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="E156" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
       <c r="I156" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J156" s="11" t="s">
+      <c r="J156" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="11"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="16"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
@@ -7572,22 +7580,22 @@
       <c r="B159" t="s">
         <v>270</v>
       </c>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D159" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E159" s="21" t="s">
+      <c r="D159" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F159" s="22" t="s">
+      <c r="F159" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="G159" s="21" t="s">
+      <c r="G159" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H159" s="22" t="s">
+      <c r="H159" s="12" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7598,165 +7606,135 @@
       <c r="B160" t="s">
         <v>270</v>
       </c>
-      <c r="C160" s="21"/>
-      <c r="D160" s="21" t="s">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E160" s="21"/>
-      <c r="F160" s="21" t="s">
+      <c r="E160" s="11"/>
+      <c r="F160" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21" t="s">
+      <c r="G160" s="11"/>
+      <c r="H160" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="20" t="s">
+      <c r="A161" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B161" t="s">
         <v>271</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D161" s="21"/>
-      <c r="E161" s="21" t="s">
+      <c r="D161" s="11"/>
+      <c r="E161" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F161" s="21"/>
-      <c r="G161" s="21" t="s">
+      <c r="F161" s="11"/>
+      <c r="G161" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H161" s="21"/>
+      <c r="H161" s="11"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="20"/>
+      <c r="A162" s="15"/>
       <c r="B162" t="s">
         <v>270</v>
       </c>
-      <c r="C162" s="21" t="s">
+      <c r="C162" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21" t="s">
+      <c r="D162" s="11"/>
+      <c r="E162" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F162" s="21"/>
-      <c r="G162" s="21" t="s">
+      <c r="F162" s="11"/>
+      <c r="G162" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H162" s="21"/>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="20" t="s">
+      <c r="A163" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B163" t="s">
         <v>271</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D163" s="21"/>
-      <c r="E163" s="21" t="s">
+      <c r="D163" s="11"/>
+      <c r="E163" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F163" s="21"/>
-      <c r="G163" s="21" t="s">
+      <c r="F163" s="11"/>
+      <c r="G163" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H163" s="21"/>
+      <c r="H163" s="11"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="20"/>
+      <c r="A164" s="15"/>
       <c r="B164" t="s">
         <v>270</v>
       </c>
-      <c r="C164" s="21" t="s">
+      <c r="C164" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D164" s="21"/>
-      <c r="E164" s="21" t="s">
+      <c r="D164" s="11"/>
+      <c r="E164" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F164" s="21"/>
-      <c r="G164" s="21" t="s">
+      <c r="F164" s="11"/>
+      <c r="G164" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H164" s="21"/>
+      <c r="H164" s="11"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="20" t="s">
+      <c r="A165" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B165" t="s">
         <v>271</v>
       </c>
-      <c r="C165" s="21"/>
-      <c r="D165" s="21" t="s">
+      <c r="C165" s="11"/>
+      <c r="D165" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21" t="s">
+      <c r="E165" s="11"/>
+      <c r="F165" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21" t="s">
+      <c r="G165" s="11"/>
+      <c r="H165" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="20"/>
+      <c r="A166" s="15"/>
       <c r="B166" t="s">
         <v>270</v>
       </c>
-      <c r="C166" s="21"/>
-      <c r="D166" s="21" t="s">
+      <c r="C166" s="11"/>
+      <c r="D166" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E166" s="21"/>
-      <c r="F166" s="21" t="s">
+      <c r="E166" s="11"/>
+      <c r="F166" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G166" s="21"/>
-      <c r="H166" s="21" t="s">
+      <c r="G166" s="11"/>
+      <c r="H166" s="11" t="s">
         <v>175</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="E156:H156"/>
-    <mergeCell ref="J156:M156"/>
-    <mergeCell ref="AO4:AT4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BF4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="E35:P35"/>
-    <mergeCell ref="Q35:AB35"/>
-    <mergeCell ref="AC35:AH35"/>
-    <mergeCell ref="AI4:AN4"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="H67:R67"/>
-    <mergeCell ref="L74:Q74"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="C92:D95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="F92:F95"/>
     <mergeCell ref="AV16:AZ16"/>
     <mergeCell ref="J115:N115"/>
     <mergeCell ref="AU15:BD15"/>
@@ -7770,6 +7748,36 @@
     <mergeCell ref="M92:M95"/>
     <mergeCell ref="I92:I95"/>
     <mergeCell ref="K92:K95"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="H67:R67"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="C92:D95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="E35:P35"/>
+    <mergeCell ref="Q35:AB35"/>
+    <mergeCell ref="AC35:AH35"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="AO4:AT4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BF4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="E156:H156"/>
+    <mergeCell ref="J156:M156"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7781,8 +7789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEA9785-6439-EE40-BF54-969898A6E922}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7810,11 +7818,11 @@
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" t="s">
         <v>75</v>
       </c>
@@ -7964,11 +7972,11 @@
       <c r="B9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" t="s">
         <v>225</v>
       </c>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Duriana/Documents/Ketchups/FYP/grpc/grpc-auto-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FEEB56-EF82-524F-9226-3091BF8668AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE13A811-5B85-D54D-BD00-2386FD332912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="14900" activeTab="2" xr2:uid="{21C299CA-AAA5-994F-A29D-AE16A83D7C73}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="14900" activeTab="1" xr2:uid="{21C299CA-AAA5-994F-A29D-AE16A83D7C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="311">
   <si>
     <t>gRPC testing checklist</t>
   </si>
@@ -943,9 +943,6 @@
     <t>deflate, gzip</t>
   </si>
   <si>
-    <t>OK, but there is no grpc-accept-encoding and grpc-encoding header from client?</t>
-  </si>
-  <si>
     <t>Welcome to gRPC auto testing record!</t>
   </si>
   <si>
@@ -1016,6 +1013,30 @@
   </si>
   <si>
     <t>* all tests, unless mentioned otherwise, are performed with gRPC</t>
+  </si>
+  <si>
+    <t>Failed: can't find decompressor for deflate</t>
+  </si>
+  <si>
+    <t>Failed: can't find decompressor for deflate (received 4 status headers)</t>
+  </si>
+  <si>
+    <t>Failed: can't find decompressor for deflate (received 4 status headers, but request sent not compressed)</t>
+  </si>
+  <si>
+    <t>Header shows deflate, but message not compressed?</t>
+  </si>
+  <si>
+    <t>Header shows gzip, but message not compressed?</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>java-client: see how decompressor not found error is thrown. Message body not compressed, why not try decompressing?</t>
+  </si>
+  <si>
+    <t>py-client and py-server: see how message compression is coded</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1143,13 +1164,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
@@ -1205,6 +1237,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1583,69 +1616,69 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
         <v>282</v>
-      </c>
-      <c r="B4" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
         <v>284</v>
-      </c>
-      <c r="B5" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>286</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>288</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s">
         <v>290</v>
-      </c>
-      <c r="B8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
         <v>292</v>
-      </c>
-      <c r="B9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1661,7 +1694,7 @@
         <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1669,33 +1702,33 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" t="s">
         <v>297</v>
-      </c>
-      <c r="B17" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>298</v>
+      </c>
+      <c r="B18" t="s">
         <v>299</v>
-      </c>
-      <c r="B18" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -1709,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21BFCB4-0742-3441-8DBF-D8558B20D680}">
-  <dimension ref="A1:BF166"/>
+  <dimension ref="A1:BF169"/>
   <sheetViews>
-    <sheetView topLeftCell="C84" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92:G95"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7569,11 +7602,20 @@
       <c r="D158" t="s">
         <v>270</v>
       </c>
+      <c r="E158" t="s">
+        <v>278</v>
+      </c>
       <c r="F158" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
+        <v>278</v>
+      </c>
+      <c r="H158" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>95</v>
       </c>
@@ -7590,13 +7632,13 @@
         <v>175</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>279</v>
+        <v>30</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>175</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>279</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
@@ -7606,20 +7648,26 @@
       <c r="B160" t="s">
         <v>270</v>
       </c>
-      <c r="C160" s="11"/>
+      <c r="C160" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D160" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E160" s="11"/>
+      <c r="E160" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F160" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G160" s="11"/>
+      <c r="G160" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H160" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
         <v>99</v>
       </c>
@@ -7629,17 +7677,23 @@
       <c r="C161" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D161" s="11"/>
+      <c r="D161" s="11" t="s">
+        <v>304</v>
+      </c>
       <c r="E161" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F161" s="11"/>
+      <c r="F161" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="G161" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H161" s="11"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H161" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="15"/>
       <c r="B162" t="s">
         <v>270</v>
@@ -7647,17 +7701,23 @@
       <c r="C162" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D162" s="11"/>
+      <c r="D162" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E162" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F162" s="11"/>
+      <c r="F162" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="G162" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H162" s="11"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H162" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
         <v>97</v>
       </c>
@@ -7667,17 +7727,26 @@
       <c r="C163" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D163" s="11"/>
+      <c r="D163" s="11" t="s">
+        <v>305</v>
+      </c>
       <c r="E163" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F163" s="11"/>
+      <c r="F163" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="G163" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H163" s="11"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H163" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I163" s="25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="15"/>
       <c r="B164" t="s">
         <v>270</v>
@@ -7685,52 +7754,92 @@
       <c r="C164" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D164" s="11"/>
+      <c r="D164" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E164" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F164" s="11"/>
+      <c r="F164" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="G164" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H164" s="11"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H164" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I164" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B165" t="s">
         <v>271</v>
       </c>
-      <c r="C165" s="11"/>
+      <c r="C165" s="11" t="s">
+        <v>303</v>
+      </c>
       <c r="D165" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E165" s="11"/>
+      <c r="E165" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F165" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G165" s="11"/>
+      <c r="G165" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H165" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165" s="25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="15"/>
       <c r="B166" t="s">
         <v>270</v>
       </c>
-      <c r="C166" s="11"/>
+      <c r="C166" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D166" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E166" s="11"/>
+      <c r="E166" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F166" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G166" s="11"/>
+      <c r="G166" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H166" s="11" t="s">
         <v>175</v>
+      </c>
+      <c r="I166" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>308</v>
+      </c>
+      <c r="B168" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -7789,7 +7898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEA9785-6439-EE40-BF54-969898A6E922}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Duriana/Documents/Ketchups/FYP/grpc/grpc-auto-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE13A811-5B85-D54D-BD00-2386FD332912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF5B982-B72A-5A43-898E-FF5064A0A956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="14900" activeTab="1" xr2:uid="{21C299CA-AAA5-994F-A29D-AE16A83D7C73}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="gat bugs" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="362">
   <si>
     <t>gRPC testing checklist</t>
   </si>
@@ -1037,6 +1038,165 @@
   </si>
   <si>
     <t>py-client and py-server: see how message compression is coded</t>
+  </si>
+  <si>
+    <t>Map values</t>
+  </si>
+  <si>
+    <t>Test with "map" proto fields</t>
+  </si>
+  <si>
+    <t>Correct send / receive. Also check field types</t>
+  </si>
+  <si>
+    <t>Parsed comparison</t>
+  </si>
+  <si>
+    <t>Client type</t>
+  </si>
+  <si>
+    <t>Server type</t>
+  </si>
+  <si>
+    <t>msg.toString() include empty map?</t>
+  </si>
+  <si>
+    <t>Empty map stored as?</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>ScalarMapContainer</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Empty map</t>
+  </si>
+  <si>
+    <t>Others?</t>
+  </si>
+  <si>
+    <t>msg.toString() double value number of decimal digits is different (py: 17 dp, java: 16 dp)</t>
+  </si>
+  <si>
+    <t>Client clear duplicate from testcase when read (check bin)</t>
+  </si>
+  <si>
+    <t>Server clear duplicate from testcase when read (check bin)</t>
+  </si>
+  <si>
+    <t>Nodejs: key must be a string?</t>
+  </si>
+  <si>
+    <t>No msg.toString() to compare</t>
+  </si>
+  <si>
+    <t>Empty map if received from grpc / undefined if read from protobufjs</t>
+  </si>
+  <si>
+    <t>Protobufjs: when duplicate, take 1st value??</t>
+  </si>
+  <si>
+    <t>TESTCASE --random
+INCLUDE_PROTO map_values.proto (map_values_int32.proto for test with Nodejs)</t>
+  </si>
+  <si>
+    <t>Protobufjs: Boolean false read as "false", then received as Boolean true through grpc</t>
+  </si>
+  <si>
+    <t>Boolean key false received through grpc as "false", serialize as true to wire</t>
+  </si>
+  <si>
+    <t>Special test: Empty map values</t>
+  </si>
+  <si>
+    <t>Map key type</t>
+  </si>
+  <si>
+    <t>Int32</t>
+  </si>
+  <si>
+    <t>Int64</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>Compression support for deflate is not available in Java</t>
+  </si>
+  <si>
+    <t>Compression on Python doesn't seem to work: the grpc-encoding header is set, but the message itself is uncompressed, as captured on Wireshark</t>
+  </si>
+  <si>
+    <t>* -&gt; PYTHON -&gt; *</t>
+  </si>
+  <si>
+    <t>This itself is not a problem, but it leads to other issues (see 13.x)</t>
+  </si>
+  <si>
+    <t>Sub #</t>
+  </si>
+  <si>
+    <t>Map fields on Nodejs is represented as a pure js object, with the map_key=property_name, and map_value=property_value. This means map_key when deserialized will be a string</t>
+  </si>
+  <si>
+    <t>Boolean false keys are deserialized as "false", but when"false" keys are serialized, they will become Boolean true</t>
+  </si>
+  <si>
+    <t>Affects both gRPC and Protobufjs</t>
+  </si>
+  <si>
+    <t>Unsure if this is intentional (therefore protobufjs' fault for not serializing this properly), or is actually an error of grpc-node.
+In protobuf.js API documentation, they specify that this is the intended format for Long-like map keys, however, there have been known issues regarding errornous serialization of these keys:
+https://github.com/protobufjs/protobuf.js/issues/1652
+https://github.com/protobufjs/protobuf.js/issues/1203
+Which seems to remain unfixed.</t>
+  </si>
+  <si>
+    <t>Again, I am not sure what types does grpc-node expected (it is likely the same as protobuf.js because from 13.2., we can see Long keys returned from gRPC is formatted in the same way).</t>
+  </si>
+  <si>
+    <t>NO*</t>
+  </si>
+  <si>
+    <t>Convert hashed binary strings to string of 64-bit integer before serialization (see convertMapKeysInObject in common.js)</t>
+  </si>
+  <si>
+    <t>64-bit integer keys are deserialized by protobufjs as string of 8-character binary hash string. When we give this key to grpc, it gives an error status 13 INTERNAL: Request message serialization failure: interior hyphen; or it serialized keys to 0 (or if the hashed string is "&lt;number&gt;&lt;non-numer&gt;", it will serialize to &lt;number&gt;).</t>
+  </si>
+  <si>
+    <t>64-bit integer keys are received as a string of 8-character binary hash string. When we give this key to protobufjs, it serializes to 0 (or throw interior hyphen error)</t>
+  </si>
+  <si>
+    <t>When serialize, change "false" keys to a property_name that will evaluate to False (empty string). However, using empty string as a property name in js is quite unusual, and if this works, it should only be a temporary workaround. The bug is still valid (see convertMapKeysInObject in common.js)</t>
+  </si>
+  <si>
+    <t>Boolean false keys received from gRPC is "false", but protobufjs serializes as true</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>java.util.Collections$UnmodifiableMap</t>
+  </si>
+  <si>
+    <t>com.google.protobuf.Internal$MapAdapter (for enum-valued maps)</t>
+  </si>
+  <si>
+    <t>TESTCASE --random=2
+INCLUDE_PROTO map_values.proto</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1341,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
@@ -1207,11 +1367,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1219,25 +1398,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -1742,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21BFCB4-0742-3441-8DBF-D8558B20D680}">
-  <dimension ref="A1:BF169"/>
+  <dimension ref="A1:BF198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1782,18 +1945,18 @@
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:58" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E4" s="19" t="s">
@@ -1812,60 +1975,60 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17" t="s">
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17" t="s">
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="17" t="s">
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="18" t="s">
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="18"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="17"/>
-      <c r="BB4" s="17"/>
-      <c r="BC4" s="17"/>
-      <c r="BD4" s="17"/>
-      <c r="BE4" s="17"/>
-      <c r="BF4" s="17"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5859,19 +6022,19 @@
       <c r="G67" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H67" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="22"/>
     </row>
     <row r="68" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
@@ -5949,14 +6112,14 @@
       <c r="K74" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L74" s="23" t="s">
+      <c r="L74" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="M74" s="23"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -6163,30 +6326,30 @@
       <c r="B90" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24" t="s">
+      <c r="D90" s="20"/>
+      <c r="E90" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24" t="s">
+      <c r="F90" s="20"/>
+      <c r="G90" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24" t="s">
+      <c r="H90" s="20"/>
+      <c r="I90" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24" t="s">
+      <c r="J90" s="20"/>
+      <c r="K90" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24" t="s">
+      <c r="L90" s="20"/>
+      <c r="M90" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="N90" s="24"/>
+      <c r="N90" s="20"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
@@ -6240,7 +6403,7 @@
         <v>176</v>
       </c>
       <c r="D92" s="16"/>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="18" t="s">
         <v>157</v>
       </c>
       <c r="F92" s="16" t="s">
@@ -6278,15 +6441,15 @@
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
-      <c r="E93" s="22"/>
+      <c r="E93" s="18"/>
       <c r="F93" s="16"/>
-      <c r="G93" s="22"/>
+      <c r="G93" s="18"/>
       <c r="H93" s="16"/>
-      <c r="I93" s="22"/>
+      <c r="I93" s="18"/>
       <c r="J93" s="16"/>
-      <c r="K93" s="22"/>
+      <c r="K93" s="18"/>
       <c r="L93" s="16"/>
-      <c r="M93" s="22"/>
+      <c r="M93" s="18"/>
       <c r="N93" s="16"/>
     </row>
     <row r="94" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -6296,15 +6459,15 @@
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
-      <c r="E94" s="22"/>
+      <c r="E94" s="18"/>
       <c r="F94" s="16"/>
-      <c r="G94" s="22"/>
+      <c r="G94" s="18"/>
       <c r="H94" s="16"/>
-      <c r="I94" s="22"/>
+      <c r="I94" s="18"/>
       <c r="J94" s="16"/>
-      <c r="K94" s="22"/>
+      <c r="K94" s="18"/>
       <c r="L94" s="16"/>
-      <c r="M94" s="22"/>
+      <c r="M94" s="18"/>
       <c r="N94" s="16"/>
     </row>
     <row r="95" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
@@ -6314,15 +6477,15 @@
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
-      <c r="E95" s="22"/>
+      <c r="E95" s="18"/>
       <c r="F95" s="16"/>
-      <c r="G95" s="22"/>
+      <c r="G95" s="18"/>
       <c r="H95" s="16"/>
-      <c r="I95" s="22"/>
+      <c r="I95" s="18"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="22"/>
+      <c r="K95" s="18"/>
       <c r="L95" s="16"/>
-      <c r="M95" s="22"/>
+      <c r="M95" s="18"/>
       <c r="N95" s="16"/>
     </row>
     <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -7667,8 +7830,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="15" t="s">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A161" s="26" t="s">
         <v>99</v>
       </c>
       <c r="B161" t="s">
@@ -7693,8 +7856,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="15"/>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A162" s="26"/>
       <c r="B162" t="s">
         <v>270</v>
       </c>
@@ -7717,8 +7880,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="15" t="s">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A163" s="26" t="s">
         <v>97</v>
       </c>
       <c r="B163" t="s">
@@ -7742,12 +7905,12 @@
       <c r="H163" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I163" s="25" t="s">
+      <c r="I163" s="15" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="15"/>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" s="26"/>
       <c r="B164" t="s">
         <v>270</v>
       </c>
@@ -7769,12 +7932,12 @@
       <c r="H164" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I164" s="25" t="s">
+      <c r="I164" s="15" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="15" t="s">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" s="26" t="s">
         <v>98</v>
       </c>
       <c r="B165" t="s">
@@ -7798,12 +7961,12 @@
       <c r="H165" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I165" s="25" t="s">
+      <c r="I165" s="15" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="15"/>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" s="26"/>
       <c r="B166" t="s">
         <v>270</v>
       </c>
@@ -7825,11 +7988,11 @@
       <c r="H166" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I166" s="25" t="s">
+      <c r="I166" s="15" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>308</v>
       </c>
@@ -7837,20 +8000,431 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>310</v>
       </c>
     </row>
+    <row r="172" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J172" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="K172" s="16"/>
+      <c r="L172" s="16"/>
+      <c r="M172" s="16"/>
+    </row>
+    <row r="173" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>335</v>
+      </c>
+      <c r="C173" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B174" t="s">
+        <v>108</v>
+      </c>
+      <c r="C174" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174" t="s">
+        <v>30</v>
+      </c>
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" t="s">
+        <v>30</v>
+      </c>
+      <c r="G174" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="18"/>
+      <c r="B175" t="s">
+        <v>336</v>
+      </c>
+      <c r="C175" t="s">
+        <v>30</v>
+      </c>
+      <c r="D175" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" t="s">
+        <v>30</v>
+      </c>
+      <c r="F175" t="s">
+        <v>30</v>
+      </c>
+      <c r="G175" t="s">
+        <v>30</v>
+      </c>
+      <c r="H175" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="18"/>
+      <c r="B176" t="s">
+        <v>337</v>
+      </c>
+      <c r="C176" t="s">
+        <v>30</v>
+      </c>
+      <c r="D176" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" t="s">
+        <v>349</v>
+      </c>
+      <c r="F176" t="s">
+        <v>349</v>
+      </c>
+      <c r="G176" t="s">
+        <v>349</v>
+      </c>
+      <c r="H176" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="18"/>
+      <c r="B177" t="s">
+        <v>338</v>
+      </c>
+      <c r="C177" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" t="s">
+        <v>349</v>
+      </c>
+      <c r="F177" t="s">
+        <v>349</v>
+      </c>
+      <c r="G177" t="s">
+        <v>349</v>
+      </c>
+      <c r="H177" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C178" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C179" t="b">
+        <v>1</v>
+      </c>
+      <c r="D179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>315</v>
+      </c>
+      <c r="C180" t="s">
+        <v>319</v>
+      </c>
+      <c r="D180" t="s">
+        <v>320</v>
+      </c>
+      <c r="E180" t="s">
+        <v>136</v>
+      </c>
+      <c r="F180" t="s">
+        <v>319</v>
+      </c>
+      <c r="G180" t="s">
+        <v>136</v>
+      </c>
+      <c r="H180" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>316</v>
+      </c>
+      <c r="C181" t="s">
+        <v>320</v>
+      </c>
+      <c r="D181" t="s">
+        <v>319</v>
+      </c>
+      <c r="E181" t="s">
+        <v>319</v>
+      </c>
+      <c r="F181" t="s">
+        <v>136</v>
+      </c>
+      <c r="G181" t="s">
+        <v>320</v>
+      </c>
+      <c r="H181" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>317</v>
+      </c>
+      <c r="C182" t="s">
+        <v>321</v>
+      </c>
+      <c r="D182" t="s">
+        <v>321</v>
+      </c>
+      <c r="E182" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>318</v>
+      </c>
+      <c r="C183" t="s">
+        <v>322</v>
+      </c>
+      <c r="D183" t="s">
+        <v>322</v>
+      </c>
+      <c r="E183" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>323</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="D184" s="17"/>
+      <c r="E184" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E185" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E186" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E187" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="53" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>30</v>
+      </c>
+      <c r="B193" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" t="s">
+        <v>30</v>
+      </c>
+      <c r="E193" t="s">
+        <v>30</v>
+      </c>
+      <c r="F193" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" t="s">
+        <v>70</v>
+      </c>
+      <c r="E195" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>355</v>
+      </c>
+      <c r="B196" t="s">
+        <v>356</v>
+      </c>
+      <c r="C196" t="s">
+        <v>355</v>
+      </c>
+      <c r="D196" t="s">
+        <v>356</v>
+      </c>
+      <c r="E196" t="s">
+        <v>355</v>
+      </c>
+      <c r="F196" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>359</v>
+      </c>
+      <c r="B197" t="s">
+        <v>358</v>
+      </c>
+      <c r="C197" t="s">
+        <v>136</v>
+      </c>
+      <c r="D197" t="s">
+        <v>358</v>
+      </c>
+      <c r="E197" t="s">
+        <v>320</v>
+      </c>
+      <c r="F197" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="AV16:AZ16"/>
-    <mergeCell ref="J115:N115"/>
+  <mergeCells count="47">
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="E156:H156"/>
+    <mergeCell ref="J156:M156"/>
+    <mergeCell ref="AO4:AT4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BF4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="E35:P35"/>
+    <mergeCell ref="Q35:AB35"/>
+    <mergeCell ref="AC35:AH35"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="C92:D95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="F92:F95"/>
     <mergeCell ref="AU15:BD15"/>
     <mergeCell ref="AI35:AN35"/>
     <mergeCell ref="I90:J90"/>
     <mergeCell ref="K90:L90"/>
     <mergeCell ref="M90:N90"/>
+    <mergeCell ref="H67:R67"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="E172:H172"/>
+    <mergeCell ref="J172:M172"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="AV16:AZ16"/>
+    <mergeCell ref="J115:N115"/>
     <mergeCell ref="N92:N95"/>
     <mergeCell ref="L92:L95"/>
     <mergeCell ref="J92:J95"/>
@@ -7860,33 +8434,7 @@
     <mergeCell ref="A92:A95"/>
     <mergeCell ref="A96:A99"/>
     <mergeCell ref="E92:E95"/>
-    <mergeCell ref="H67:R67"/>
-    <mergeCell ref="L74:Q74"/>
     <mergeCell ref="H92:H95"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="C92:D95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="E35:P35"/>
-    <mergeCell ref="Q35:AB35"/>
-    <mergeCell ref="AC35:AH35"/>
-    <mergeCell ref="AI4:AN4"/>
-    <mergeCell ref="AO4:AT4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BF4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="E156:H156"/>
-    <mergeCell ref="J156:M156"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7896,267 +8444,382 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEA9785-6439-EE40-BF54-969898A6E922}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" customWidth="1"/>
-    <col min="10" max="10" width="139" customWidth="1"/>
+    <col min="3" max="3" width="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5" customWidth="1"/>
+    <col min="11" max="11" width="139" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>77</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>77</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>77</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>130</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>77</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>77</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>77</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>151</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>77</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" t="s">
         <v>225</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="136" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>230</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>77</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>77</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>266</v>
       </c>
     </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" t="s">
+        <v>341</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" t="s">
+        <v>348</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C9:E9"/>
+  <mergeCells count="3">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="J18:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Duriana/Documents/Ketchups/FYP/grpc/grpc-auto-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF5B982-B72A-5A43-898E-FF5064A0A956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{76A8541C-3053-9043-A4AB-3F2B3FE55ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="14900" activeTab="1" xr2:uid="{21C299CA-AAA5-994F-A29D-AE16A83D7C73}"/>
+    <workbookView xWindow="1140" yWindow="500" windowWidth="24460" windowHeight="14900" activeTab="2" xr2:uid="{21C299CA-AAA5-994F-A29D-AE16A83D7C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="364">
   <si>
     <t>gRPC testing checklist</t>
   </si>
@@ -1197,6 +1197,13 @@
   <si>
     <t>TESTCASE --random=2
 INCLUDE_PROTO map_values.proto</t>
+  </si>
+  <si>
+    <t>From
+To</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -1368,29 +1375,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1398,8 +1387,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1907,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21BFCB4-0742-3441-8DBF-D8558B20D680}">
   <dimension ref="A1:BF198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="T122" sqref="T122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1945,90 +1952,90 @@
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:58" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="24" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24" t="s">
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24" t="s">
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24" t="s">
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="25" t="s">
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2252,6 +2259,24 @@
       <c r="V6" t="s">
         <v>30</v>
       </c>
+      <c r="W6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>30</v>
+      </c>
       <c r="AC6" t="s">
         <v>30</v>
       </c>
@@ -2386,6 +2411,24 @@
       <c r="V7" t="s">
         <v>30</v>
       </c>
+      <c r="W7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>30</v>
+      </c>
       <c r="AC7" t="s">
         <v>30</v>
       </c>
@@ -2502,6 +2545,24 @@
       <c r="V8" t="s">
         <v>30</v>
       </c>
+      <c r="W8" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>30</v>
+      </c>
       <c r="AC8" t="s">
         <v>30</v>
       </c>
@@ -2618,6 +2679,24 @@
       <c r="V9" t="s">
         <v>30</v>
       </c>
+      <c r="W9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>30</v>
+      </c>
       <c r="AC9" t="s">
         <v>30</v>
       </c>
@@ -2752,6 +2831,24 @@
       <c r="V10" t="s">
         <v>30</v>
       </c>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>30</v>
+      </c>
       <c r="AC10" t="s">
         <v>30</v>
       </c>
@@ -2886,6 +2983,24 @@
       <c r="V11" t="s">
         <v>30</v>
       </c>
+      <c r="W11" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>30</v>
+      </c>
       <c r="AC11" t="s">
         <v>30</v>
       </c>
@@ -3002,6 +3117,24 @@
       <c r="V12" t="s">
         <v>30</v>
       </c>
+      <c r="W12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>30</v>
+      </c>
       <c r="AC12" t="s">
         <v>30</v>
       </c>
@@ -3121,6 +3254,24 @@
       <c r="V13" t="s">
         <v>30</v>
       </c>
+      <c r="W13" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>30</v>
+      </c>
       <c r="AC13" t="s">
         <v>30</v>
       </c>
@@ -3240,6 +3391,24 @@
       <c r="V14" t="s">
         <v>30</v>
       </c>
+      <c r="W14" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>30</v>
+      </c>
       <c r="AC14" t="s">
         <v>30</v>
       </c>
@@ -3359,6 +3528,24 @@
       <c r="V15" t="s">
         <v>30</v>
       </c>
+      <c r="W15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>30</v>
+      </c>
       <c r="AC15" t="s">
         <v>30</v>
       </c>
@@ -3413,18 +3600,18 @@
       <c r="AT15" t="s">
         <v>30</v>
       </c>
-      <c r="AU15" s="16" t="s">
+      <c r="AU15" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="16"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
-      <c r="AZ15" s="16"/>
-      <c r="BA15" s="16"/>
-      <c r="BB15" s="16"/>
-      <c r="BC15" s="16"/>
-      <c r="BD15" s="16"/>
+      <c r="AV15" s="17"/>
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="17"/>
+      <c r="AY15" s="17"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="17"/>
+      <c r="BB15" s="17"/>
+      <c r="BC15" s="17"/>
+      <c r="BD15" s="17"/>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3487,6 +3674,24 @@
       <c r="V16" t="s">
         <v>30</v>
       </c>
+      <c r="W16" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>30</v>
+      </c>
       <c r="AC16" t="s">
         <v>30</v>
       </c>
@@ -3544,13 +3749,13 @@
       <c r="AU16" t="s">
         <v>191</v>
       </c>
-      <c r="AV16" s="16" t="s">
+      <c r="AV16" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="16"/>
-      <c r="AZ16" s="16"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="17"/>
+      <c r="AY16" s="17"/>
+      <c r="AZ16" s="17"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -3613,6 +3818,24 @@
       <c r="V17" t="s">
         <v>30</v>
       </c>
+      <c r="W17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>30</v>
+      </c>
       <c r="AC17" t="s">
         <v>30</v>
       </c>
@@ -3729,6 +3952,24 @@
       <c r="V18" t="s">
         <v>30</v>
       </c>
+      <c r="W18" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>30</v>
+      </c>
       <c r="AC18" t="s">
         <v>30</v>
       </c>
@@ -3809,6 +4050,24 @@
       <c r="V19" t="s">
         <v>30</v>
       </c>
+      <c r="W19" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>30</v>
+      </c>
       <c r="AC19" t="s">
         <v>30</v>
       </c>
@@ -3889,6 +4148,24 @@
       <c r="V20" t="s">
         <v>30</v>
       </c>
+      <c r="W20" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>30</v>
+      </c>
       <c r="AC20" t="s">
         <v>30</v>
       </c>
@@ -3969,6 +4246,24 @@
       <c r="V21" t="s">
         <v>30</v>
       </c>
+      <c r="W21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>30</v>
+      </c>
       <c r="AC21" t="s">
         <v>30</v>
       </c>
@@ -4049,6 +4344,24 @@
       <c r="V22" t="s">
         <v>30</v>
       </c>
+      <c r="W22" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="AI23" t="s">
@@ -4123,50 +4436,50 @@
       </c>
     </row>
     <row r="35" spans="1:40" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19" t="s">
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19" t="s">
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="19" t="s">
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
-      <c r="AN35" s="19"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -6022,19 +6335,19 @@
       <c r="G67" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="22" t="s">
+      <c r="H67" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="22"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
     </row>
     <row r="68" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
@@ -6112,14 +6425,14 @@
       <c r="K74" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L74" s="22" t="s">
+      <c r="L74" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
       <c r="R74" s="4"/>
     </row>
     <row r="75" spans="1:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -6326,30 +6639,30 @@
       <c r="B90" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20" t="s">
+      <c r="F90" s="22"/>
+      <c r="G90" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20" t="s">
+      <c r="H90" s="22"/>
+      <c r="I90" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20" t="s">
+      <c r="J90" s="22"/>
+      <c r="K90" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20" t="s">
+      <c r="L90" s="22"/>
+      <c r="M90" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="N90" s="20"/>
+      <c r="N90" s="22"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
@@ -6393,103 +6706,103 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="26" t="s">
         <v>165</v>
       </c>
       <c r="B92" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="18" t="s">
+      <c r="D92" s="17"/>
+      <c r="E92" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="F92" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="G92" s="16" t="s">
+      <c r="G92" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="H92" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="I92" s="16" t="s">
+      <c r="I92" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="J92" s="16" t="s">
+      <c r="J92" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="K92" s="16" t="s">
+      <c r="K92" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="L92" s="16" t="s">
+      <c r="L92" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="M92" s="16" t="s">
+      <c r="M92" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N92" s="16" t="s">
+      <c r="N92" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="21"/>
+      <c r="A93" s="26"/>
       <c r="B93" t="s">
         <v>167</v>
       </c>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="16"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="17"/>
     </row>
     <row r="94" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
+      <c r="A94" s="26"/>
       <c r="B94" t="s">
         <v>168</v>
       </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="17"/>
     </row>
     <row r="95" spans="1:14" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="21"/>
+      <c r="A95" s="26"/>
       <c r="B95" t="s">
         <v>169</v>
       </c>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="17"/>
     </row>
     <row r="96" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="26" t="s">
         <v>172</v>
       </c>
       <c r="B96" t="s">
@@ -6533,7 +6846,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="21"/>
+      <c r="A97" s="26"/>
       <c r="B97" t="s">
         <v>167</v>
       </c>
@@ -6575,7 +6888,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A98" s="21"/>
+      <c r="A98" s="26"/>
       <c r="B98" t="s">
         <v>168</v>
       </c>
@@ -6617,7 +6930,7 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
+      <c r="A99" s="26"/>
       <c r="B99" t="s">
         <v>169</v>
       </c>
@@ -6676,7 +6989,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="1:15" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:24" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>199</v>
       </c>
@@ -6701,15 +7014,15 @@
       <c r="I115" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J115" s="16" t="s">
+      <c r="J115" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-    </row>
-    <row r="116" spans="1:15" ht="52" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+    </row>
+    <row r="116" spans="1:24" ht="52" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>206</v>
       </c>
@@ -6752,8 +7065,29 @@
       <c r="O116" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R116" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="S116" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T116" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U116" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="V116" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W116" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="X116" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -6796,8 +7130,29 @@
       <c r="O117" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R117" t="s">
+        <v>95</v>
+      </c>
+      <c r="S117" t="s">
+        <v>175</v>
+      </c>
+      <c r="T117" t="s">
+        <v>363</v>
+      </c>
+      <c r="U117" t="s">
+        <v>175</v>
+      </c>
+      <c r="V117" t="s">
+        <v>363</v>
+      </c>
+      <c r="W117" t="s">
+        <v>175</v>
+      </c>
+      <c r="X117" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -6840,8 +7195,29 @@
       <c r="O118" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R118" t="s">
+        <v>96</v>
+      </c>
+      <c r="S118" t="s">
+        <v>363</v>
+      </c>
+      <c r="T118" t="s">
+        <v>175</v>
+      </c>
+      <c r="U118" t="s">
+        <v>363</v>
+      </c>
+      <c r="V118" t="s">
+        <v>175</v>
+      </c>
+      <c r="W118" t="s">
+        <v>363</v>
+      </c>
+      <c r="X118" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -6884,8 +7260,29 @@
       <c r="O119" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R119" t="s">
+        <v>99</v>
+      </c>
+      <c r="S119" t="s">
+        <v>175</v>
+      </c>
+      <c r="T119" t="s">
+        <v>363</v>
+      </c>
+      <c r="U119" t="s">
+        <v>175</v>
+      </c>
+      <c r="V119" t="s">
+        <v>363</v>
+      </c>
+      <c r="W119" t="s">
+        <v>175</v>
+      </c>
+      <c r="X119" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -6928,8 +7325,29 @@
       <c r="O120" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R120" t="s">
+        <v>100</v>
+      </c>
+      <c r="S120" t="s">
+        <v>363</v>
+      </c>
+      <c r="T120" t="s">
+        <v>175</v>
+      </c>
+      <c r="U120" t="s">
+        <v>363</v>
+      </c>
+      <c r="V120" t="s">
+        <v>175</v>
+      </c>
+      <c r="W120" t="s">
+        <v>363</v>
+      </c>
+      <c r="X120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -6972,8 +7390,29 @@
       <c r="O121" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R121" t="s">
+        <v>97</v>
+      </c>
+      <c r="S121" t="s">
+        <v>175</v>
+      </c>
+      <c r="T121" t="s">
+        <v>363</v>
+      </c>
+      <c r="U121" t="s">
+        <v>175</v>
+      </c>
+      <c r="V121" t="s">
+        <v>363</v>
+      </c>
+      <c r="W121" t="s">
+        <v>175</v>
+      </c>
+      <c r="X121" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -7016,8 +7455,29 @@
       <c r="O122" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R122" t="s">
+        <v>98</v>
+      </c>
+      <c r="S122" t="s">
+        <v>363</v>
+      </c>
+      <c r="T122" t="s">
+        <v>175</v>
+      </c>
+      <c r="U122" t="s">
+        <v>363</v>
+      </c>
+      <c r="V122" t="s">
+        <v>175</v>
+      </c>
+      <c r="W122" t="s">
+        <v>363</v>
+      </c>
+      <c r="X122" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -7061,7 +7521,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -7105,7 +7565,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -7149,7 +7609,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -7193,7 +7653,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -7237,7 +7697,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -7711,21 +8171,21 @@
       <c r="D156" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
       <c r="I156" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J156" s="16" t="s">
+      <c r="J156" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="K156" s="16"/>
-      <c r="L156" s="16"/>
-      <c r="M156" s="16"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
     </row>
@@ -7831,7 +8291,7 @@
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A161" s="26" t="s">
+      <c r="A161" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B161" t="s">
@@ -7857,7 +8317,7 @@
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A162" s="26"/>
+      <c r="A162" s="16"/>
       <c r="B162" t="s">
         <v>270</v>
       </c>
@@ -7881,7 +8341,7 @@
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A163" s="26" t="s">
+      <c r="A163" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B163" t="s">
@@ -7910,7 +8370,7 @@
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A164" s="26"/>
+      <c r="A164" s="16"/>
       <c r="B164" t="s">
         <v>270</v>
       </c>
@@ -7937,7 +8397,7 @@
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A165" s="26" t="s">
+      <c r="A165" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B165" t="s">
@@ -7966,7 +8426,7 @@
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A166" s="26"/>
+      <c r="A166" s="16"/>
       <c r="B166" t="s">
         <v>270</v>
       </c>
@@ -8018,21 +8478,21 @@
       <c r="D172" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="F172" s="16"/>
-      <c r="G172" s="16"/>
-      <c r="H172" s="16"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
       <c r="I172" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="J172" s="16" t="s">
+      <c r="J172" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="K172" s="16"/>
-      <c r="L172" s="16"/>
-      <c r="M172" s="16"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
     </row>
     <row r="173" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
@@ -8058,7 +8518,7 @@
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A174" s="18" t="s">
+      <c r="A174" s="23" t="s">
         <v>314</v>
       </c>
       <c r="B174" t="s">
@@ -8084,7 +8544,7 @@
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A175" s="18"/>
+      <c r="A175" s="23"/>
       <c r="B175" t="s">
         <v>336</v>
       </c>
@@ -8108,7 +8568,7 @@
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A176" s="18"/>
+      <c r="A176" s="23"/>
       <c r="B176" t="s">
         <v>337</v>
       </c>
@@ -8132,7 +8592,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="18"/>
+      <c r="A177" s="23"/>
       <c r="B177" t="s">
         <v>338</v>
       </c>
@@ -8255,10 +8715,10 @@
       <c r="A184" t="s">
         <v>323</v>
       </c>
-      <c r="C184" s="17" t="s">
+      <c r="C184" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="D184" s="17"/>
+      <c r="D184" s="25"/>
       <c r="E184" t="s">
         <v>327</v>
       </c>
@@ -8388,37 +8848,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A161:A162"/>
-    <mergeCell ref="A163:A164"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="E156:H156"/>
-    <mergeCell ref="J156:M156"/>
-    <mergeCell ref="AO4:AT4"/>
-    <mergeCell ref="AU4:AZ4"/>
-    <mergeCell ref="BA4:BF4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="AC4:AH4"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="E35:P35"/>
-    <mergeCell ref="Q35:AB35"/>
-    <mergeCell ref="AC35:AH35"/>
-    <mergeCell ref="AI4:AN4"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="C92:D95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="F92:F95"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="AI35:AN35"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="H67:R67"/>
-    <mergeCell ref="L74:Q74"/>
     <mergeCell ref="E172:H172"/>
     <mergeCell ref="J172:M172"/>
     <mergeCell ref="C184:D184"/>
@@ -8435,6 +8864,37 @@
     <mergeCell ref="A96:A99"/>
     <mergeCell ref="E92:E95"/>
     <mergeCell ref="H92:H95"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="AI35:AN35"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="H67:R67"/>
+    <mergeCell ref="L74:Q74"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="C92:D95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="F92:F95"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="E35:P35"/>
+    <mergeCell ref="Q35:AB35"/>
+    <mergeCell ref="AC35:AH35"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="AO4:AT4"/>
+    <mergeCell ref="AU4:AZ4"/>
+    <mergeCell ref="BA4:BF4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="AC4:AH4"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="E156:H156"/>
+    <mergeCell ref="J156:M156"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8446,8 +8906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEA9785-6439-EE40-BF54-969898A6E922}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8478,11 +8938,11 @@
       <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" t="s">
         <v>75</v>
       </c>
@@ -8632,11 +9092,11 @@
       <c r="C9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" t="s">
         <v>225</v>
       </c>
@@ -8793,7 +9253,7 @@
       <c r="C18" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="24" t="s">
         <v>350</v>
       </c>
       <c r="K18" s="4" t="s">
@@ -8810,7 +9270,7 @@
       <c r="C19" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="24"/>
       <c r="K19" t="s">
         <v>348</v>
       </c>
